--- a/public/alumini_excel/alumini1.xlsx
+++ b/public/alumini_excel/alumini1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\alumini_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28617C21-F35B-42FC-AA0D-CE7902B62F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0EFE6-A0DD-4EED-885C-94C59DCDE7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{053170EE-4D4C-4F71-AE71-2127C315A1BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{053170EE-4D4C-4F71-AE71-2127C315A1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="BTech Alumni" sheetId="3" r:id="rId1"/>
     <sheet name="MTech Alumni" sheetId="1" r:id="rId2"/>
-    <sheet name="PhD Alumni" sheetId="2" r:id="rId3"/>
+    <sheet name="PhD_Alumini" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="353">
   <si>
     <t>Sl.No</t>
   </si>
@@ -841,9 +841,6 @@
     <t>Akarsh Bajpai</t>
   </si>
   <si>
-    <t>Dr. Basant K Patel</t>
-  </si>
-  <si>
     <t>Taruna Saini</t>
   </si>
   <si>
@@ -910,9 +907,6 @@
     <t>Dr. Rajakumara Eerappa</t>
   </si>
   <si>
-    <t>Principle Investigator</t>
-  </si>
-  <si>
     <t>ABHISHEK SUMAN</t>
   </si>
   <si>
@@ -1085,6 +1079,24 @@
   </si>
   <si>
     <t xml:space="preserve">Working as Consulting Lead - Analytics </t>
+  </si>
+  <si>
+    <t>Dr. Basant Kumar Patel</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Start-up</t>
+  </si>
+  <si>
+    <t>Guide</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1237,6 +1249,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1247,7 +1279,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1397,7 +1429,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1777,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C2" s="13">
         <v>2025</v>
@@ -1790,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3" s="13">
         <v>2025</v>
@@ -1803,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C4" s="13">
         <v>2025</v>
@@ -1816,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" s="13">
         <v>2025</v>
@@ -1829,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" s="13">
         <v>2025</v>
@@ -1842,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" s="13">
         <v>2025</v>
@@ -1855,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C8" s="13">
         <v>2025</v>
@@ -1868,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C9" s="13">
         <v>2025</v>
@@ -1960,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797A3A62-B23C-415D-9D87-866D81CE31F8}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C150" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,15 +2014,16 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1995,8 +2036,11 @@
       <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2006,7 +2050,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -2019,8 +2063,11 @@
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2030,7 +2077,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2040,7 +2087,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2050,7 +2097,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -2063,8 +2110,11 @@
       <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2074,7 +2124,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -2087,8 +2137,11 @@
       <c r="D10" s="46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -2101,8 +2154,11 @@
       <c r="D11" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2112,7 +2168,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2122,7 +2178,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -2133,8 +2189,11 @@
       <c r="D14" s="47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -2145,8 +2204,11 @@
       <c r="D15" s="46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -2159,8 +2221,11 @@
       <c r="D16" s="28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -2170,7 +2235,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -2180,7 +2245,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2190,7 +2255,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>18</v>
       </c>
@@ -2203,8 +2268,11 @@
       <c r="D20" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2214,15 +2282,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>0</v>
       </c>
@@ -2235,8 +2304,11 @@
       <c r="D25" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>1</v>
       </c>
@@ -2249,8 +2321,11 @@
       <c r="D26" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>2</v>
       </c>
@@ -2263,8 +2338,11 @@
       <c r="D27" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3</v>
       </c>
@@ -2274,7 +2352,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>4</v>
       </c>
@@ -2287,8 +2365,11 @@
       <c r="D29" s="46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>5</v>
       </c>
@@ -2301,8 +2382,11 @@
       <c r="D30" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>6</v>
       </c>
@@ -2315,8 +2399,11 @@
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>7</v>
       </c>
@@ -2329,8 +2416,11 @@
       <c r="D32" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>8</v>
       </c>
@@ -2343,8 +2433,11 @@
       <c r="D33" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>9</v>
       </c>
@@ -2357,8 +2450,11 @@
       <c r="D34" s="26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>10</v>
       </c>
@@ -2371,28 +2467,32 @@
       <c r="D35" s="46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="61" t="s">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
@@ -2405,8 +2505,11 @@
       <c r="D39" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>1</v>
       </c>
@@ -2419,8 +2522,11 @@
       <c r="D40" s="28" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>2</v>
       </c>
@@ -2430,7 +2536,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>3</v>
       </c>
@@ -2443,8 +2549,11 @@
       <c r="D42" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>4</v>
       </c>
@@ -2457,8 +2566,11 @@
       <c r="D43" s="46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>5</v>
       </c>
@@ -2471,8 +2583,11 @@
       <c r="D44" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>6</v>
       </c>
@@ -2485,8 +2600,11 @@
       <c r="D45" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>7</v>
       </c>
@@ -2499,8 +2617,11 @@
       <c r="D46" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>8</v>
       </c>
@@ -2513,8 +2634,11 @@
       <c r="D47" s="46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>9</v>
       </c>
@@ -2527,8 +2651,11 @@
       <c r="D48" s="46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>10</v>
       </c>
@@ -2541,8 +2668,11 @@
       <c r="D49" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>11</v>
       </c>
@@ -2555,8 +2685,11 @@
       <c r="D50" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>12</v>
       </c>
@@ -2569,8 +2702,11 @@
       <c r="D51" s="46" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>13</v>
       </c>
@@ -2583,8 +2719,11 @@
       <c r="D52" s="46" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>14</v>
       </c>
@@ -2597,16 +2736,20 @@
       <c r="D53" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="61" t="s">
+      <c r="E53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>0</v>
       </c>
@@ -2619,8 +2762,11 @@
       <c r="D57" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>1</v>
       </c>
@@ -2633,8 +2779,11 @@
       <c r="D58" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>2</v>
       </c>
@@ -2647,8 +2796,11 @@
       <c r="D59" s="47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>3</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="D60" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>4</v>
       </c>
@@ -2675,8 +2830,11 @@
       <c r="D61" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>5</v>
       </c>
@@ -2689,8 +2847,11 @@
       <c r="D62" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>6</v>
       </c>
@@ -2703,8 +2864,11 @@
       <c r="D63" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>7</v>
       </c>
@@ -2717,8 +2881,11 @@
       <c r="D64" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>8</v>
       </c>
@@ -2731,8 +2898,11 @@
       <c r="D65" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>9</v>
       </c>
@@ -2745,28 +2915,32 @@
       <c r="D66" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="61" t="s">
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>0</v>
       </c>
@@ -2779,8 +2953,11 @@
       <c r="D70" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>1</v>
       </c>
@@ -2793,8 +2970,11 @@
       <c r="D71" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>2</v>
       </c>
@@ -2807,8 +2987,11 @@
       <c r="D72" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>3</v>
       </c>
@@ -2821,8 +3004,11 @@
       <c r="D73" s="46" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>4</v>
       </c>
@@ -2835,8 +3021,11 @@
       <c r="D74" s="26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>5</v>
       </c>
@@ -2849,8 +3038,11 @@
       <c r="D75" s="26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>6</v>
       </c>
@@ -2863,8 +3055,11 @@
       <c r="D76" s="47" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>7</v>
       </c>
@@ -2877,8 +3072,11 @@
       <c r="D77" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>8</v>
       </c>
@@ -2891,8 +3089,11 @@
       <c r="D78" s="46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>9</v>
       </c>
@@ -2905,16 +3106,20 @@
       <c r="D79" s="26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="61" t="s">
+      <c r="E79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-    </row>
-    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+    </row>
+    <row r="83" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>0</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="D83" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>1</v>
       </c>
@@ -2941,8 +3149,11 @@
       <c r="D84" s="28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>2</v>
       </c>
@@ -2955,8 +3166,11 @@
       <c r="D85" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>3</v>
       </c>
@@ -2969,8 +3183,11 @@
       <c r="D86" s="46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>4</v>
       </c>
@@ -2983,8 +3200,11 @@
       <c r="D87" s="46" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E87" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="48">
         <v>5</v>
       </c>
@@ -2997,8 +3217,11 @@
       <c r="D88" s="50" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>6</v>
       </c>
@@ -3011,8 +3234,11 @@
       <c r="D89" s="28" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>7</v>
       </c>
@@ -3025,8 +3251,11 @@
       <c r="D90" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>8</v>
       </c>
@@ -3039,22 +3268,26 @@
       <c r="D91" s="30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="9"/>
       <c r="C92" s="7"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="94" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A94" s="61" t="s">
+    <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A94" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-    </row>
-    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>0</v>
       </c>
@@ -3067,8 +3300,11 @@
       <c r="D95" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E95" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>1</v>
       </c>
@@ -3078,7 +3314,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="27">
         <v>2</v>
       </c>
@@ -3091,8 +3327,11 @@
       <c r="D97" s="28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>3</v>
       </c>
@@ -3105,8 +3344,11 @@
       <c r="D98" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
         <v>4</v>
       </c>
@@ -3119,8 +3361,11 @@
       <c r="D99" s="28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
         <v>5</v>
       </c>
@@ -3133,8 +3378,11 @@
       <c r="D100" s="28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="55">
         <v>6</v>
       </c>
@@ -3147,8 +3395,11 @@
       <c r="D101" s="56" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>7</v>
       </c>
@@ -3161,8 +3412,11 @@
       <c r="D102" s="47" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <v>8</v>
       </c>
@@ -3175,16 +3429,20 @@
       <c r="D103" s="46" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A106" s="61" t="s">
+      <c r="E103" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A106" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="61"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="61"/>
-    </row>
-    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+    </row>
+    <row r="107" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>0</v>
       </c>
@@ -3197,8 +3455,11 @@
       <c r="D107" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E107" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>1</v>
       </c>
@@ -3208,7 +3469,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>2</v>
       </c>
@@ -3219,8 +3480,11 @@
       <c r="D109" s="47" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E109" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="27">
         <v>3</v>
       </c>
@@ -3234,7 +3498,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>4</v>
       </c>
@@ -3244,7 +3508,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="27">
         <v>5</v>
       </c>
@@ -3257,8 +3521,11 @@
       <c r="D112" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="27">
         <v>6</v>
       </c>
@@ -3271,8 +3538,11 @@
       <c r="D113" s="28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="27">
         <v>7</v>
       </c>
@@ -3285,8 +3555,11 @@
       <c r="D114" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="27">
         <v>8</v>
       </c>
@@ -3299,8 +3572,11 @@
       <c r="D115" s="28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>9</v>
       </c>
@@ -3313,16 +3589,19 @@
       <c r="D116" s="46" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A119" s="61" t="s">
+      <c r="E116" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A119" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B119" s="61"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="61"/>
-    </row>
-    <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B119" s="63"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+    </row>
+    <row r="120" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>0</v>
       </c>
@@ -3335,8 +3614,11 @@
       <c r="D120" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E120" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="27">
         <v>1</v>
       </c>
@@ -3349,8 +3631,11 @@
       <c r="D121" s="28" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>2</v>
       </c>
@@ -3363,8 +3648,11 @@
       <c r="D122" s="46" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E122" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="27">
         <v>3</v>
       </c>
@@ -3377,8 +3665,11 @@
       <c r="D123" s="28" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>4</v>
       </c>
@@ -3388,7 +3679,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>5</v>
       </c>
@@ -3401,8 +3692,11 @@
       <c r="D125" s="46" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E125" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="27">
         <v>7</v>
       </c>
@@ -3415,8 +3709,11 @@
       <c r="D126" s="26" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>8</v>
       </c>
@@ -3429,22 +3726,25 @@
       <c r="D127" s="46" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E127" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A130" s="61" t="s">
+    <row r="130" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A130" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="B130" s="61"/>
-      <c r="C130" s="61"/>
-      <c r="D130" s="61"/>
-    </row>
-    <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B130" s="63"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="63"/>
+    </row>
+    <row r="131" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>0</v>
       </c>
@@ -3457,8 +3757,11 @@
       <c r="D131" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E131" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>1</v>
       </c>
@@ -3471,8 +3774,11 @@
       <c r="D132" s="46" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E132" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>2</v>
       </c>
@@ -3480,13 +3786,16 @@
         <v>215</v>
       </c>
       <c r="C133" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D133" s="46" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="E133" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="27">
         <v>3</v>
       </c>
@@ -3499,8 +3808,11 @@
       <c r="D134" s="26" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>4</v>
       </c>
@@ -3510,7 +3822,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="27">
         <v>5</v>
       </c>
@@ -3523,8 +3835,11 @@
       <c r="D136" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>7</v>
       </c>
@@ -3534,12 +3849,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="27">
         <v>8</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C138" s="28" t="s">
         <v>224</v>
@@ -3547,8 +3862,11 @@
       <c r="D138" s="28" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>9</v>
       </c>
@@ -3561,16 +3879,19 @@
       <c r="D139" s="51" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A142" s="61" t="s">
+      <c r="E139" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A142" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="61"/>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-    </row>
-    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B142" s="63"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="63"/>
+    </row>
+    <row r="143" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>0</v>
       </c>
@@ -3583,8 +3904,11 @@
       <c r="D143" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E143" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="27">
         <v>1</v>
       </c>
@@ -3593,8 +3917,11 @@
       </c>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="45">
         <v>2</v>
       </c>
@@ -3607,8 +3934,11 @@
       <c r="D145" s="46" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E145" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="27">
         <v>3</v>
       </c>
@@ -3621,8 +3951,11 @@
       <c r="D146" s="28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="27">
         <v>4</v>
       </c>
@@ -3633,8 +3966,11 @@
       <c r="D147" s="28" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="52">
         <v>5</v>
       </c>
@@ -3647,8 +3983,11 @@
       <c r="D148" s="53" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E148" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>7</v>
       </c>
@@ -3658,7 +3997,7 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="27">
         <v>8</v>
       </c>
@@ -3671,22 +4010,25 @@
       <c r="D150" s="28" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
     </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A153" s="61" t="s">
+    <row r="153" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A153" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="B153" s="61"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="61"/>
-    </row>
-    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B153" s="63"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="63"/>
+    </row>
+    <row r="154" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>0</v>
       </c>
@@ -3699,8 +4041,11 @@
       <c r="D154" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E154" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="27">
         <v>1</v>
       </c>
@@ -3713,8 +4058,11 @@
       <c r="D155" s="28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="27">
         <v>2</v>
       </c>
@@ -3727,8 +4075,11 @@
       <c r="D156" s="28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="27">
         <v>3</v>
       </c>
@@ -3741,8 +4092,11 @@
       <c r="D157" s="28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="27">
         <v>4</v>
       </c>
@@ -3755,8 +4109,11 @@
       <c r="D158" s="28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="52">
         <v>5</v>
       </c>
@@ -3764,13 +4121,16 @@
         <v>256</v>
       </c>
       <c r="C159" s="60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D159" s="53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E159" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>7</v>
       </c>
@@ -3780,7 +4140,7 @@
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="52">
         <v>8</v>
       </c>
@@ -3793,8 +4153,11 @@
       <c r="D161" s="54" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E161" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="52">
         <v>9</v>
       </c>
@@ -3807,21 +4170,20 @@
       <c r="D162" s="53" t="s">
         <v>262</v>
       </c>
+      <c r="E162" s="61" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A106:D106"/>
+  <mergeCells count="8">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3831,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DC8C2F-4CC8-4493-9CC7-D4026DB1DEF8}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>3</v>
@@ -3863,7 +4225,9 @@
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
@@ -3876,7 +4240,7 @@
         <v>2025</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3886,19 +4250,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="23">
         <v>2025</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="G3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3906,19 +4273,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="27">
         <v>2025</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -3926,19 +4296,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="25">
         <v>2024</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>276</v>
+      <c r="G5" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -3946,19 +4319,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="25">
         <v>2024</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>279</v>
+      <c r="G6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3966,19 +4342,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="25">
         <v>2023</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -3986,19 +4365,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" s="25">
         <v>2023</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>284</v>
+      <c r="G8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -4006,19 +4388,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="25">
         <v>2022</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="G9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4026,19 +4411,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" s="25">
         <v>2022</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -4046,19 +4434,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="25">
         <v>2022</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="G11" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4066,19 +4457,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C12" s="21">
         <v>2021</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>296</v>
+      <c r="G12" s="61" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4086,19 +4480,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="21">
         <v>2021</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4106,19 +4503,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="25">
         <v>2021</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="G14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4126,19 +4526,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="25">
         <v>2021</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="G15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4146,265 +4549,298 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="25">
         <v>2020</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="G16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" s="25">
         <v>2020</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="G17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="25">
         <v>2019</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C19" s="21">
         <v>2019</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" s="25">
         <v>2019</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" s="25">
         <v>2019</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="G21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C22" s="35">
         <v>2018</v>
       </c>
       <c r="D22" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G22" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C23" s="27">
         <v>2018</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="G23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C24" s="20">
         <v>2017</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" s="25">
         <v>2017</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="G25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C26" s="33">
         <v>2016</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>26</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C27" s="33">
         <v>2016</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>27</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C28" s="38">
         <v>2016</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="G28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
     </row>
   </sheetData>
